--- a/biology/Origine et évolution du vivant/Amoebozoa_(classification_phylogénétique)/Amoebozoa_(classification_phylogénétique).xlsx
+++ b/biology/Origine et évolution du vivant/Amoebozoa_(classification_phylogénétique)/Amoebozoa_(classification_phylogénétique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Amoebozoa_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Amoebozoa_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette page a pour objet de présenter un arbre phylogénétique des Amoebozoa (Amœbozoaires, Amibes), c'est-à-dire un cladogramme mettant en lumière les relations de parenté existant entre leurs différents groupes (ou taxa), telles que les dernières analyses reconnues les proposent. Ce n'est qu'une possibilité, et les principaux débats qui subsistent au sein de la communauté scientifique sont brièvement présentés ci-dessous, avant la bibliographie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Amoebozoa_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Amoebozoa_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Arbre phylogénétique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cladogramme présenté ici ne possède qu'une valeur indicative. Il n'est pas forcément consensuel, et on peut toujours se référer à la bibliographie au bas de l'article.
 Le symbole ▲ renvoie à la partie immédiatement supérieure de l'arbre phylogénétique du vivant. Le signe ► renvoie à la classification phylogénétique du groupe considéré. Tout nœud de l'arbre portant plus de deux branches montre une indétermination de la phylogénie interne du groupe considéré.
@@ -658,7 +672,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Amoebozoa_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Amoebozoa_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -678,8 +692,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Classification proposée par Adl et al. 2005
-Ce comité a proposé une nouvelle classification, remplaçant celle des anciens Protistes et tenant compte des phylogénies moléculaires récentes. Elle regroupe les Eucaryotes en six groupes réputés monophylétiques. Voici ce qui concerne les Amoebozoa.
+          <t>Classification proposée par Adl et al. 2005</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce comité a proposé une nouvelle classification, remplaçant celle des anciens Protistes et tenant compte des phylogénies moléculaires récentes. Elle regroupe les Eucaryotes en six groupes réputés monophylétiques. Voici ce qui concerne les Amoebozoa.
 Classification proposée par Adl et al. 2005
 ▲
 └─o Amoebozoa
@@ -720,7 +739,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Amoebozoa_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Amoebozoa_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -738,24 +757,163 @@
           <t>En savoir plus</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> : document utilisé comme source pour la rédaction de cet article.
-Sources bibliographiques de référence
-Alexey Smirnov, Elena Nassonova, Cédric Berney, José Fahrni, Ignacio Bolivar et Jan Pawlowski : « Molecular Phylogeny and Classification of the Lobose Amoebae », Protist, vol. 156, n°2, pp. 129-142, 2005
-Sina M. Adl et alii : « The New Higher Level Classification of Eukaryotes », J. Eukaryot. Microbiol., vol. 52, n°5, pp. 399–451, 2005 
-Autres sources bibliographiques
-Thomas Cavalier-Smith (2003) « Protist phylogeny and the high-level classification of Protozoa », Europ. J. Protistol., 39, pp. 338-348
-Sources internet
-« Molecular phylogeny of amoeboid protists »(Archive.org • Wikiwix • Archive.is • Google • Que faire ?)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Amoebozoa_(classification_phylogénétique)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amoebozoa_(classification_phylog%C3%A9n%C3%A9tique)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>En savoir plus</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sources bibliographiques de référence</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alexey Smirnov, Elena Nassonova, Cédric Berney, José Fahrni, Ignacio Bolivar et Jan Pawlowski : « Molecular Phylogeny and Classification of the Lobose Amoebae », Protist, vol. 156, n°2, pp. 129-142, 2005
+Sina M. Adl et alii : « The New Higher Level Classification of Eukaryotes », J. Eukaryot. Microbiol., vol. 52, n°5, pp. 399–451, 2005 </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Amoebozoa_(classification_phylogénétique)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amoebozoa_(classification_phylog%C3%A9n%C3%A9tique)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>En savoir plus</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Autres sources bibliographiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Thomas Cavalier-Smith (2003) « Protist phylogeny and the high-level classification of Protozoa », Europ. J. Protistol., 39, pp. 338-348</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Amoebozoa_(classification_phylogénétique)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amoebozoa_(classification_phylog%C3%A9n%C3%A9tique)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>En savoir plus</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sources internet</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>« Molecular phylogeny of amoeboid protists »(Archive.org • Wikiwix • Archive.is • Google • Que faire ?)
 Mikko's Phylogeny Archive
 The Taxonomicon
 « Palaeos.org »(Archive.org • Wikiwix • Archive.is • Google • Que faire ?)
 « Micro*scope »(Archive.org • Wikiwix • Archive.is • Google • Que faire ?)
 NCBI Taxonomy Browser
-The Tree of Life Web Project
-Liens internes
-Amibe
+The Tree of Life Web Project</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Amoebozoa_(classification_phylogénétique)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amoebozoa_(classification_phylog%C3%A9n%C3%A9tique)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>En savoir plus</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Liens internes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amibe
 Arbre phylogénétique
 Le vivant (classification phylogénétique)
 Eukaryota (classification phylogénétique)
